--- a/docs/data/NBN_speeds/concat_nbn_speed_data.xlsx
+++ b/docs/data/NBN_speeds/concat_nbn_speed_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blake/Sync/School/School_2021/semester_2/FIT3179_data_vis/ASS_2/docs/data/NBN_speeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E900309F-D942-4B4C-A498-A9FE0594548B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16742875-9162-A34C-9328-42AB24E8576B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20180" yWindow="3260" windowWidth="27640" windowHeight="16940" xr2:uid="{3D6B1C6C-F3AB-E645-9AB4-3FDADA87DF88}"/>
+    <workbookView xWindow="10160" yWindow="1940" windowWidth="27640" windowHeight="16940" xr2:uid="{3D6B1C6C-F3AB-E645-9AB4-3FDADA87DF88}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="concat_nbn_speed_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="6">
   <si>
     <t>Time</t>
   </si>
@@ -58,6 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -75,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,14 +86,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4189E0AF-8AEF-E24C-B873-948880633B75}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314:A337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,6 +446,7 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -437,7 +467,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B2" t="s">
@@ -450,12 +480,12 @@
         <f>100-C2</f>
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B3" t="s">
@@ -465,15 +495,15 @@
         <v>97</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D49" si="0">100-C3</f>
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
+        <f t="shared" ref="D3:D66" si="0">100-C3</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>0.125</v>
       </c>
       <c r="B4" t="s">
@@ -486,12 +516,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>0.16666666666666699</v>
       </c>
       <c r="B5" t="s">
@@ -504,13 +534,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0.20833333333333401</v>
+      <c r="A6" s="2">
+        <v>0.20833333333333301</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -522,12 +552,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>0.25</v>
       </c>
       <c r="B7" t="s">
@@ -540,12 +570,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>0.29166666666666702</v>
       </c>
       <c r="B8" t="s">
@@ -558,12 +588,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>0.33333333333333298</v>
       </c>
       <c r="B9" t="s">
@@ -576,12 +606,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>0.375</v>
       </c>
       <c r="B10" t="s">
@@ -594,12 +624,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>0.41666666666666702</v>
       </c>
       <c r="B11" t="s">
@@ -612,12 +642,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>0.45833333333333298</v>
       </c>
       <c r="B12" t="s">
@@ -630,12 +660,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>0.5</v>
       </c>
       <c r="B13" t="s">
@@ -648,12 +678,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>0.54166666666666696</v>
       </c>
       <c r="B14" t="s">
@@ -666,12 +696,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>0.58333333333333304</v>
       </c>
       <c r="B15" t="s">
@@ -684,12 +714,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>0.625</v>
       </c>
       <c r="B16" t="s">
@@ -702,12 +732,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>0.66666666666666696</v>
       </c>
       <c r="B17" t="s">
@@ -720,12 +750,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>0.70833333333333304</v>
       </c>
       <c r="B18" t="s">
@@ -738,12 +768,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>0.75</v>
       </c>
       <c r="B19" t="s">
@@ -756,13 +786,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>0.79166666666666596</v>
+      <c r="A20" s="2">
+        <v>0.79166666666666696</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -774,12 +804,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>0.83333333333333304</v>
       </c>
       <c r="B21" t="s">
@@ -792,12 +822,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>0.875</v>
       </c>
       <c r="B22" t="s">
@@ -810,13 +840,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0.91666666666666596</v>
+      <c r="A23" s="2">
+        <v>0.91666666666666696</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -828,12 +858,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>0.95833333333333304</v>
       </c>
       <c r="B24" t="s">
@@ -846,12 +876,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>1</v>
       </c>
       <c r="B25" t="s">
@@ -864,440 +894,5624 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>44409</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>4.1666666666666664E-2</v>
+      <c r="A26" s="2">
+        <v>1.0416666666666701</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>95.7</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>4.2999999999999972</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>8.3333333333333301E-2</v>
+      <c r="A27" s="2">
+        <v>1.0833333333333399</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>95.7</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
         <v>4.2999999999999972</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>0.125</v>
+      <c r="A28" s="2">
+        <v>1.125</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>95.7</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
         <v>4.2999999999999972</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0.16666666666666699</v>
+      <c r="A29" s="2">
+        <v>1.1666666666666701</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>95.7</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
         <v>4.2999999999999972</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>0.20833333333333401</v>
+      <c r="A30" s="2">
+        <v>1.2083333333333399</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>95.7</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
         <v>4.2999999999999972</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>0.25</v>
+      <c r="A31" s="2">
+        <v>1.25</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>94.8</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
         <v>5.2000000000000028</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>0.29166666666666702</v>
+      <c r="A32" s="2">
+        <v>1.2916666666666701</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>94.8</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
         <v>5.2000000000000028</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>0.33333333333333298</v>
+      <c r="A33" s="2">
+        <v>1.3333333333333399</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>94.8</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
         <v>5.2000000000000028</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>0.375</v>
+      <c r="A34" s="2">
+        <v>1.375</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>94.8</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
         <v>5.2000000000000028</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>0.41666666666666702</v>
+      <c r="A35" s="2">
+        <v>1.4166666666666701</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>94.8</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
         <v>5.2000000000000028</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>0.45833333333333298</v>
+      <c r="A36" s="2">
+        <v>1.4583333333333399</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>94.8</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
         <v>5.2000000000000028</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>0.5</v>
+      <c r="A37" s="2">
+        <v>1.5</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>94.3</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
         <v>5.7000000000000028</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>0.54166666666666696</v>
+      <c r="A38" s="2">
+        <v>1.5416666666666701</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>94.3</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
         <v>5.7000000000000028</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>0.58333333333333304</v>
+      <c r="A39" s="2">
+        <v>1.5833333333333399</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>94.3</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
         <v>5.7000000000000028</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>0.625</v>
+      <c r="A40" s="2">
+        <v>1.625</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>94.3</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
         <v>5.7000000000000028</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>0.66666666666666696</v>
+      <c r="A41" s="2">
+        <v>1.6666666666666701</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>94.3</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
         <v>5.7000000000000028</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>0.70833333333333304</v>
+      <c r="A42" s="2">
+        <v>1.7083333333333399</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>94.3</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
         <v>5.7000000000000028</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>0.75</v>
+      <c r="A43" s="2">
+        <v>1.75</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>92.7</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
         <v>7.2999999999999972</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>0.79166666666666596</v>
+      <c r="A44" s="2">
+        <v>1.7916666666666701</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>93.7</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
         <v>6.2999999999999972</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>0.83333333333333304</v>
+      <c r="A45" s="2">
+        <v>1.8333333333333399</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>94.8</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
         <v>5.2000000000000028</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>0.875</v>
+      <c r="A46" s="2">
+        <v>1.875</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>93.8</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
         <v>6.2000000000000028</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>0.91666666666666596</v>
+      <c r="A47" s="2">
+        <v>1.9166666666666701</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>93.2</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
         <v>6.7999999999999972</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>0.95833333333333304</v>
+      <c r="A48" s="2">
+        <v>1.9583333333333399</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>93.1</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
         <v>6.9000000000000057</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>44348</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>1</v>
+      <c r="A49" s="2">
+        <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>95.7</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
         <v>4.2999999999999972</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>44348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>87.02</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>12.980000000000004</v>
+      </c>
+      <c r="E50" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>87.02</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>12.980000000000004</v>
+      </c>
+      <c r="E51" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>87.02</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>12.980000000000004</v>
+      </c>
+      <c r="E52" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>87.02</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>12.980000000000004</v>
+      </c>
+      <c r="E53" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>87.02</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>12.980000000000004</v>
+      </c>
+      <c r="E54" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>87.02</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>12.980000000000004</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>87.03</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>12.969999999999999</v>
+      </c>
+      <c r="E56" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>87.03</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>12.969999999999999</v>
+      </c>
+      <c r="E57" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>87.03</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>12.969999999999999</v>
+      </c>
+      <c r="E58" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>87.03</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>12.969999999999999</v>
+      </c>
+      <c r="E59" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>87.03</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>12.969999999999999</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>87.03</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>12.969999999999999</v>
+      </c>
+      <c r="E61" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>86.31</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>13.689999999999998</v>
+      </c>
+      <c r="E62" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>86.31</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>13.689999999999998</v>
+      </c>
+      <c r="E63" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>86.31</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>13.689999999999998</v>
+      </c>
+      <c r="E64" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>86.31</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>13.689999999999998</v>
+      </c>
+      <c r="E65" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>86.31</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>13.689999999999998</v>
+      </c>
+      <c r="E66" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>86.31</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="1">100-C67</f>
+        <v>13.689999999999998</v>
+      </c>
+      <c r="E67" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>85.2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="E68" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>84.05</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>15.950000000000003</v>
+      </c>
+      <c r="E69" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>83.06</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>16.939999999999998</v>
+      </c>
+      <c r="E70" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>83.44</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>16.560000000000002</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>85.04</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>14.959999999999994</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>86.04</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>13.959999999999994</v>
+      </c>
+      <c r="E73" s="1">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>86.05</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>13.950000000000003</v>
+      </c>
+      <c r="E74" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>1.0833333333333399</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>86.05</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>13.950000000000003</v>
+      </c>
+      <c r="E75" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>86.05</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>13.950000000000003</v>
+      </c>
+      <c r="E76" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>86.05</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>13.950000000000003</v>
+      </c>
+      <c r="E77" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>1.2083333333333399</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>86.05</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>13.950000000000003</v>
+      </c>
+      <c r="E78" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>86.05</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>13.950000000000003</v>
+      </c>
+      <c r="E79" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>1.2916666666666701</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>85.58</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>14.420000000000002</v>
+      </c>
+      <c r="E80" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>1.3333333333333399</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>85.58</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>14.420000000000002</v>
+      </c>
+      <c r="E81" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>1.375</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>85.58</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>14.420000000000002</v>
+      </c>
+      <c r="E82" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>1.4166666666666701</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>85.58</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>14.420000000000002</v>
+      </c>
+      <c r="E83" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>1.4583333333333399</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>85.58</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>14.420000000000002</v>
+      </c>
+      <c r="E84" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>85.58</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>14.420000000000002</v>
+      </c>
+      <c r="E85" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>1.5416666666666701</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>84.89</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>15.11</v>
+      </c>
+      <c r="E86" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>1.5833333333333399</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>84.89</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>15.11</v>
+      </c>
+      <c r="E87" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>1.625</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>84.89</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>15.11</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>84.89</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>15.11</v>
+      </c>
+      <c r="E89" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>1.7083333333333399</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>84.89</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>15.11</v>
+      </c>
+      <c r="E90" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>84.89</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>15.11</v>
+      </c>
+      <c r="E91" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>1.7916666666666701</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>83.39</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>16.61</v>
+      </c>
+      <c r="E92" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>1.8333333333333399</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>82.03</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>17.97</v>
+      </c>
+      <c r="E93" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>80.27</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>19.730000000000004</v>
+      </c>
+      <c r="E94" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>1.9166666666666701</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>80.3</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>19.700000000000003</v>
+      </c>
+      <c r="E95" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>1.9583333333333399</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>82.67</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>17.329999999999998</v>
+      </c>
+      <c r="E96" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>84.79</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>15.209999999999994</v>
+      </c>
+      <c r="E97" s="1">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>89.71</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>10.290000000000006</v>
+      </c>
+      <c r="E98" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>89.71</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>10.290000000000006</v>
+      </c>
+      <c r="E99" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>89.71</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>10.290000000000006</v>
+      </c>
+      <c r="E100" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>89.71</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>10.290000000000006</v>
+      </c>
+      <c r="E101" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>89.71</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>10.290000000000006</v>
+      </c>
+      <c r="E102" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>89.71</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>10.290000000000006</v>
+      </c>
+      <c r="E103" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>89.66</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>10.340000000000003</v>
+      </c>
+      <c r="E104" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>89.66</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>10.340000000000003</v>
+      </c>
+      <c r="E105" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>89.66</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>10.340000000000003</v>
+      </c>
+      <c r="E106" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>89.66</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>10.340000000000003</v>
+      </c>
+      <c r="E107" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>89.66</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>10.340000000000003</v>
+      </c>
+      <c r="E108" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>89.66</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>10.340000000000003</v>
+      </c>
+      <c r="E109" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>89.28</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>10.719999999999999</v>
+      </c>
+      <c r="E110" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>89.28</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>10.719999999999999</v>
+      </c>
+      <c r="E111" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>89.28</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>10.719999999999999</v>
+      </c>
+      <c r="E112" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>89.28</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>10.719999999999999</v>
+      </c>
+      <c r="E113" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>89.28</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>10.719999999999999</v>
+      </c>
+      <c r="E114" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>89.28</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>10.719999999999999</v>
+      </c>
+      <c r="E115" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>88.99</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>11.010000000000005</v>
+      </c>
+      <c r="E116" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>88.75</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
+      <c r="E117" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>87.76</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>12.239999999999995</v>
+      </c>
+      <c r="E118" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>88.53</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>11.469999999999999</v>
+      </c>
+      <c r="E119" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>88.33</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>11.670000000000002</v>
+      </c>
+      <c r="E120" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>89.45</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>10.549999999999997</v>
+      </c>
+      <c r="E121" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>86.46</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>13.540000000000006</v>
+      </c>
+      <c r="E122" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>1.0833333333333399</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>86.46</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>13.540000000000006</v>
+      </c>
+      <c r="E123" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>86.46</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>13.540000000000006</v>
+      </c>
+      <c r="E124" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>86.46</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>13.540000000000006</v>
+      </c>
+      <c r="E125" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>1.2083333333333399</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>86.46</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>13.540000000000006</v>
+      </c>
+      <c r="E126" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>86.46</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>13.540000000000006</v>
+      </c>
+      <c r="E127" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>1.2916666666666701</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>85.95</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>14.049999999999997</v>
+      </c>
+      <c r="E128" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>1.3333333333333399</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>85.95</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>14.049999999999997</v>
+      </c>
+      <c r="E129" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>1.375</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>85.95</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>14.049999999999997</v>
+      </c>
+      <c r="E130" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>1.4166666666666701</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>85.95</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D194" si="2">100-C131</f>
+        <v>14.049999999999997</v>
+      </c>
+      <c r="E131" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>1.4583333333333399</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>85.95</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>14.049999999999997</v>
+      </c>
+      <c r="E132" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>85.95</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>14.049999999999997</v>
+      </c>
+      <c r="E133" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>1.5416666666666701</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>85.32</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>14.680000000000007</v>
+      </c>
+      <c r="E134" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>1.5833333333333399</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>85.32</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>14.680000000000007</v>
+      </c>
+      <c r="E135" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>1.625</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>85.32</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>14.680000000000007</v>
+      </c>
+      <c r="E136" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>85.32</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>14.680000000000007</v>
+      </c>
+      <c r="E137" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>1.7083333333333399</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>85.32</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>14.680000000000007</v>
+      </c>
+      <c r="E138" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>85.32</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>14.680000000000007</v>
+      </c>
+      <c r="E139" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>1.7916666666666701</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>84.23</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>15.769999999999996</v>
+      </c>
+      <c r="E140" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>1.8333333333333399</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>82.81</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>17.189999999999998</v>
+      </c>
+      <c r="E141" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>81.239999999999995</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>18.760000000000005</v>
+      </c>
+      <c r="E142" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>1.9166666666666701</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>79.69</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>20.310000000000002</v>
+      </c>
+      <c r="E143" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>1.9583333333333399</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>82.73</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>17.269999999999996</v>
+      </c>
+      <c r="E144" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>84.85</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>15.150000000000006</v>
+      </c>
+      <c r="E145" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>88.67</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>11.329999999999998</v>
+      </c>
+      <c r="E146" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>88.67</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>11.329999999999998</v>
+      </c>
+      <c r="E147" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>88.67</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>11.329999999999998</v>
+      </c>
+      <c r="E148" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>88.67</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>11.329999999999998</v>
+      </c>
+      <c r="E149" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>88.67</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>11.329999999999998</v>
+      </c>
+      <c r="E150" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>88.67</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>11.329999999999998</v>
+      </c>
+      <c r="E151" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>88.49</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>11.510000000000005</v>
+      </c>
+      <c r="E152" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>88.49</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>11.510000000000005</v>
+      </c>
+      <c r="E153" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>88.49</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>11.510000000000005</v>
+      </c>
+      <c r="E154" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>88.49</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>11.510000000000005</v>
+      </c>
+      <c r="E155" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>88.49</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>11.510000000000005</v>
+      </c>
+      <c r="E156" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>88.49</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>11.510000000000005</v>
+      </c>
+      <c r="E157" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>87.5</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="E158" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>87.5</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="E159" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>87.5</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="E160" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>87.5</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="E161" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>87.5</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="E162" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>87.5</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="E163" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>86.89</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>13.11</v>
+      </c>
+      <c r="E164" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>86.8</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="E165" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>85.52</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>14.480000000000004</v>
+      </c>
+      <c r="E166" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>83.72</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>16.28</v>
+      </c>
+      <c r="E167" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>86.44</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>13.560000000000002</v>
+      </c>
+      <c r="E168" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>87.88</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>12.120000000000005</v>
+      </c>
+      <c r="E169" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>88.74</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>11.260000000000005</v>
+      </c>
+      <c r="E170" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>1.0833333333333399</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>88.74</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>11.260000000000005</v>
+      </c>
+      <c r="E171" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>88.74</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>11.260000000000005</v>
+      </c>
+      <c r="E172" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>88.74</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>11.260000000000005</v>
+      </c>
+      <c r="E173" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>1.2083333333333399</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>88.74</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>11.260000000000005</v>
+      </c>
+      <c r="E174" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>88.01</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>11.989999999999995</v>
+      </c>
+      <c r="E175" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>1.2916666666666701</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>88.01</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>11.989999999999995</v>
+      </c>
+      <c r="E176" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>1.3333333333333399</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>88.01</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>11.989999999999995</v>
+      </c>
+      <c r="E177" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>1.375</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>88.01</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>11.989999999999995</v>
+      </c>
+      <c r="E178" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>1.4166666666666701</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>88.01</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>11.989999999999995</v>
+      </c>
+      <c r="E179" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>1.4583333333333399</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>88.01</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>11.989999999999995</v>
+      </c>
+      <c r="E180" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>87.72</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>12.280000000000001</v>
+      </c>
+      <c r="E181" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>1.5416666666666701</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>87.72</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>12.280000000000001</v>
+      </c>
+      <c r="E182" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>1.5833333333333399</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>87.72</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>12.280000000000001</v>
+      </c>
+      <c r="E183" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>1.625</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>87.72</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>12.280000000000001</v>
+      </c>
+      <c r="E184" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <v>87.72</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>12.280000000000001</v>
+      </c>
+      <c r="E185" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>1.7083333333333399</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>87.72</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>12.280000000000001</v>
+      </c>
+      <c r="E186" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>86.69</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>13.310000000000002</v>
+      </c>
+      <c r="E187" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>1.7916666666666701</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>86.14</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>13.86</v>
+      </c>
+      <c r="E188" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>1.8333333333333399</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>84.36</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>15.64</v>
+      </c>
+      <c r="E189" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>84.27</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>15.730000000000004</v>
+      </c>
+      <c r="E190" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>1.9166666666666701</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>86.9</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>13.099999999999994</v>
+      </c>
+      <c r="E191" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>1.9583333333333399</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>87.95</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>12.049999999999997</v>
+      </c>
+      <c r="E192" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>88.74</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>11.260000000000005</v>
+      </c>
+      <c r="E193" s="1">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>87.99</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="2"/>
+        <v>12.010000000000005</v>
+      </c>
+      <c r="E194" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>1.0833333333333399</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>87.99</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D258" si="3">100-C195</f>
+        <v>12.010000000000005</v>
+      </c>
+      <c r="E195" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>87.99</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>12.010000000000005</v>
+      </c>
+      <c r="E196" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197">
+        <v>87.99</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>12.010000000000005</v>
+      </c>
+      <c r="E197" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>1.2083333333333399</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>87.99</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>12.010000000000005</v>
+      </c>
+      <c r="E198" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>88.04</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>11.959999999999994</v>
+      </c>
+      <c r="E199" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>1.2916666666666701</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>88.04</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>11.959999999999994</v>
+      </c>
+      <c r="E200" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>1.3333333333333399</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>88.04</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>11.959999999999994</v>
+      </c>
+      <c r="E201" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>1.375</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>88.04</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>11.959999999999994</v>
+      </c>
+      <c r="E202" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>1.4166666666666701</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>88.04</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>11.959999999999994</v>
+      </c>
+      <c r="E203" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>1.4583333333333399</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>88.04</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>11.959999999999994</v>
+      </c>
+      <c r="E204" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>87</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E205" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>1.5416666666666701</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>87</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E206" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>1.5833333333333399</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <v>87</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E207" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>1.625</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>87</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E208" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <v>87</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E209" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>1.7083333333333399</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210">
+        <v>87</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E210" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>85.19</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>14.810000000000002</v>
+      </c>
+      <c r="E211" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>1.7916666666666701</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>84.65</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>15.349999999999994</v>
+      </c>
+      <c r="E212" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>1.8333333333333399</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>18.349999999999994</v>
+      </c>
+      <c r="E213" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>81.33</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>18.670000000000002</v>
+      </c>
+      <c r="E214" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>1.9166666666666701</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <v>83.45</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>16.549999999999997</v>
+      </c>
+      <c r="E215" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>1.9583333333333399</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>85</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E216" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>87.99</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>12.010000000000005</v>
+      </c>
+      <c r="E217" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>88.73</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>11.269999999999996</v>
+      </c>
+      <c r="E218" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>88.73</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>11.269999999999996</v>
+      </c>
+      <c r="E219" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>88.73</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>11.269999999999996</v>
+      </c>
+      <c r="E220" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <v>88.73</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>11.269999999999996</v>
+      </c>
+      <c r="E221" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>88.73</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="3"/>
+        <v>11.269999999999996</v>
+      </c>
+      <c r="E222" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <v>88.22</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="3"/>
+        <v>11.780000000000001</v>
+      </c>
+      <c r="E223" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>88.22</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="3"/>
+        <v>11.780000000000001</v>
+      </c>
+      <c r="E224" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B225" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225">
+        <v>88.22</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="3"/>
+        <v>11.780000000000001</v>
+      </c>
+      <c r="E225" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B226" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>88.22</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="3"/>
+        <v>11.780000000000001</v>
+      </c>
+      <c r="E226" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227">
+        <v>88.22</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>11.780000000000001</v>
+      </c>
+      <c r="E227" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>88.22</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>11.780000000000001</v>
+      </c>
+      <c r="E228" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>87.36</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>12.64</v>
+      </c>
+      <c r="E229" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>87.36</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>12.64</v>
+      </c>
+      <c r="E230" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B231" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <v>87.36</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>12.64</v>
+      </c>
+      <c r="E231" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B232" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232">
+        <v>87.36</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>12.64</v>
+      </c>
+      <c r="E232" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>87.36</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>12.64</v>
+      </c>
+      <c r="E233" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>87.36</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>12.64</v>
+      </c>
+      <c r="E234" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>86.41</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>13.590000000000003</v>
+      </c>
+      <c r="E235" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>85.64</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="3"/>
+        <v>14.36</v>
+      </c>
+      <c r="E236" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>83.78</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="3"/>
+        <v>16.22</v>
+      </c>
+      <c r="E237" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>82.93</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="3"/>
+        <v>17.069999999999993</v>
+      </c>
+      <c r="E238" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B239" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>86.02</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="3"/>
+        <v>13.980000000000004</v>
+      </c>
+      <c r="E239" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>87.36</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="3"/>
+        <v>12.64</v>
+      </c>
+      <c r="E240" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>1</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>88.73</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="3"/>
+        <v>11.269999999999996</v>
+      </c>
+      <c r="E241" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>88.52</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="3"/>
+        <v>11.480000000000004</v>
+      </c>
+      <c r="E242" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>1.0833333333333399</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>88.52</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="3"/>
+        <v>11.480000000000004</v>
+      </c>
+      <c r="E243" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>88.52</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="3"/>
+        <v>11.480000000000004</v>
+      </c>
+      <c r="E244" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245">
+        <v>88.52</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="3"/>
+        <v>11.480000000000004</v>
+      </c>
+      <c r="E245" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>1.2083333333333399</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <v>88.52</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="3"/>
+        <v>11.480000000000004</v>
+      </c>
+      <c r="E246" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="B247" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247">
+        <v>88.07</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="3"/>
+        <v>11.930000000000007</v>
+      </c>
+      <c r="E247" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>1.2916666666666701</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>88.07</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="3"/>
+        <v>11.930000000000007</v>
+      </c>
+      <c r="E248" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>1.3333333333333399</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>88.07</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="3"/>
+        <v>11.930000000000007</v>
+      </c>
+      <c r="E249" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>1.375</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <v>88.07</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="3"/>
+        <v>11.930000000000007</v>
+      </c>
+      <c r="E250" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>1.4166666666666701</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251">
+        <v>88.07</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="3"/>
+        <v>11.930000000000007</v>
+      </c>
+      <c r="E251" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>1.4583333333333399</v>
+      </c>
+      <c r="B252" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252">
+        <v>88.07</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="3"/>
+        <v>11.930000000000007</v>
+      </c>
+      <c r="E252" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <v>86.94</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="3"/>
+        <v>13.060000000000002</v>
+      </c>
+      <c r="E253" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>1.5416666666666701</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>86.94</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="3"/>
+        <v>13.060000000000002</v>
+      </c>
+      <c r="E254" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>1.5833333333333399</v>
+      </c>
+      <c r="B255" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255">
+        <v>86.94</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="3"/>
+        <v>13.060000000000002</v>
+      </c>
+      <c r="E255" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>1.625</v>
+      </c>
+      <c r="B256" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>86.94</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="3"/>
+        <v>13.060000000000002</v>
+      </c>
+      <c r="E256" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>86.94</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="3"/>
+        <v>13.060000000000002</v>
+      </c>
+      <c r="E257" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>1.7083333333333399</v>
+      </c>
+      <c r="B258" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258">
+        <v>86.94</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="3"/>
+        <v>13.060000000000002</v>
+      </c>
+      <c r="E258" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>85.36</v>
+      </c>
+      <c r="D259">
+        <f t="shared" ref="D259:D322" si="4">100-C259</f>
+        <v>14.64</v>
+      </c>
+      <c r="E259" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>1.7916666666666701</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>84.18</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="4"/>
+        <v>15.819999999999993</v>
+      </c>
+      <c r="E260" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>1.8333333333333399</v>
+      </c>
+      <c r="B261" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>83.32</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="4"/>
+        <v>16.680000000000007</v>
+      </c>
+      <c r="E261" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>83.39</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="4"/>
+        <v>16.61</v>
+      </c>
+      <c r="E262" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>1.9166666666666701</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <v>85.94</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="4"/>
+        <v>14.060000000000002</v>
+      </c>
+      <c r="E263" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>1.9583333333333399</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <v>87.38</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="4"/>
+        <v>12.620000000000005</v>
+      </c>
+      <c r="E264" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>2</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265">
+        <v>88.52</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="4"/>
+        <v>11.480000000000004</v>
+      </c>
+      <c r="E265" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <v>90.25</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="4"/>
+        <v>9.75</v>
+      </c>
+      <c r="E266" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <v>90.25</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="4"/>
+        <v>9.75</v>
+      </c>
+      <c r="E267" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>90.25</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="4"/>
+        <v>9.75</v>
+      </c>
+      <c r="E268" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>90.25</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="4"/>
+        <v>9.75</v>
+      </c>
+      <c r="E269" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B270" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270">
+        <v>90.25</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="4"/>
+        <v>9.75</v>
+      </c>
+      <c r="E270" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>89.96</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="4"/>
+        <v>10.040000000000006</v>
+      </c>
+      <c r="E271" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272">
+        <v>89.96</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="4"/>
+        <v>10.040000000000006</v>
+      </c>
+      <c r="E272" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273">
+        <v>89.96</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="4"/>
+        <v>10.040000000000006</v>
+      </c>
+      <c r="E273" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>89.96</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="4"/>
+        <v>10.040000000000006</v>
+      </c>
+      <c r="E274" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275">
+        <v>89.96</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="4"/>
+        <v>10.040000000000006</v>
+      </c>
+      <c r="E275" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>89.96</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="4"/>
+        <v>10.040000000000006</v>
+      </c>
+      <c r="E276" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277">
+        <v>88.96</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="4"/>
+        <v>11.040000000000006</v>
+      </c>
+      <c r="E277" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>88.96</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="4"/>
+        <v>11.040000000000006</v>
+      </c>
+      <c r="E278" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279">
+        <v>88.96</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="4"/>
+        <v>11.040000000000006</v>
+      </c>
+      <c r="E279" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B280" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>88.96</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="4"/>
+        <v>11.040000000000006</v>
+      </c>
+      <c r="E280" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>88.96</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="4"/>
+        <v>11.040000000000006</v>
+      </c>
+      <c r="E281" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282">
+        <v>88.96</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="4"/>
+        <v>11.040000000000006</v>
+      </c>
+      <c r="E282" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283">
+        <v>88.12</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="4"/>
+        <v>11.879999999999995</v>
+      </c>
+      <c r="E283" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>87.91</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="4"/>
+        <v>12.090000000000003</v>
+      </c>
+      <c r="E284" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285">
+        <v>87.66</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="4"/>
+        <v>12.340000000000003</v>
+      </c>
+      <c r="E285" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>87.81</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="4"/>
+        <v>12.189999999999998</v>
+      </c>
+      <c r="E286" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>88.82</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="4"/>
+        <v>11.180000000000007</v>
+      </c>
+      <c r="E287" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>89.53</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="4"/>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="E288" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>1</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>90.25</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="4"/>
+        <v>9.75</v>
+      </c>
+      <c r="E289" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>95.65</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999943</v>
+      </c>
+      <c r="E290" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>95.65</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999943</v>
+      </c>
+      <c r="E291" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>95.65</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999943</v>
+      </c>
+      <c r="E292" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293">
+        <v>95.65</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999943</v>
+      </c>
+      <c r="E293" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294">
+        <v>95.65</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999943</v>
+      </c>
+      <c r="E294" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295">
+        <v>95.6</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="E295" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B296" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296">
+        <v>95.6</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="E296" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <v>95.6</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="E297" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B298" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>95.6</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="E298" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B299" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299">
+        <v>95.6</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="E299" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>95.6</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="E300" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301">
+        <v>94.99</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="4"/>
+        <v>5.0100000000000051</v>
+      </c>
+      <c r="E301" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B302" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>94.99</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="4"/>
+        <v>5.0100000000000051</v>
+      </c>
+      <c r="E302" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B303" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303">
+        <v>94.99</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="4"/>
+        <v>5.0100000000000051</v>
+      </c>
+      <c r="E303" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B304" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304">
+        <v>94.99</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="4"/>
+        <v>5.0100000000000051</v>
+      </c>
+      <c r="E304" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3</v>
+      </c>
+      <c r="C305">
+        <v>94.99</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="4"/>
+        <v>5.0100000000000051</v>
+      </c>
+      <c r="E305" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306">
+        <v>94.99</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="4"/>
+        <v>5.0100000000000051</v>
+      </c>
+      <c r="E306" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B307" t="s">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>95.08</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="4"/>
+        <v>4.9200000000000017</v>
+      </c>
+      <c r="E307" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B308" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308">
+        <v>94.52</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="4"/>
+        <v>5.480000000000004</v>
+      </c>
+      <c r="E308" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B309" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <v>94.06</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="4"/>
+        <v>5.9399999999999977</v>
+      </c>
+      <c r="E309" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B310" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>93.75</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+      <c r="E310" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B311" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311">
+        <v>94.35</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="4"/>
+        <v>5.6500000000000057</v>
+      </c>
+      <c r="E311" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B312" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <v>94.97</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="4"/>
+        <v>5.0300000000000011</v>
+      </c>
+      <c r="E312" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="2">
+        <v>1</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313">
+        <v>95.65</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999943</v>
+      </c>
+      <c r="E313" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B314" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314">
+        <v>95.96</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="4"/>
+        <v>4.0400000000000063</v>
+      </c>
+      <c r="E314" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B315" t="s">
+        <v>3</v>
+      </c>
+      <c r="C315">
+        <v>95.96</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="4"/>
+        <v>4.0400000000000063</v>
+      </c>
+      <c r="E315" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B316" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>95.96</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="4"/>
+        <v>4.0400000000000063</v>
+      </c>
+      <c r="E316" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B317" t="s">
+        <v>3</v>
+      </c>
+      <c r="C317">
+        <v>95.96</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="4"/>
+        <v>4.0400000000000063</v>
+      </c>
+      <c r="E317" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318">
+        <v>95.96</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="4"/>
+        <v>4.0400000000000063</v>
+      </c>
+      <c r="E318" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B319" t="s">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>95.61</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="4"/>
+        <v>4.3900000000000006</v>
+      </c>
+      <c r="E319" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B320" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320">
+        <v>95.61</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="4"/>
+        <v>4.3900000000000006</v>
+      </c>
+      <c r="E320" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B321" t="s">
+        <v>3</v>
+      </c>
+      <c r="C321">
+        <v>95.61</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="4"/>
+        <v>4.3900000000000006</v>
+      </c>
+      <c r="E321" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B322" t="s">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>95.61</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="4"/>
+        <v>4.3900000000000006</v>
+      </c>
+      <c r="E322" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B323" t="s">
+        <v>3</v>
+      </c>
+      <c r="C323">
+        <v>95.61</v>
+      </c>
+      <c r="D323">
+        <f t="shared" ref="D323:D337" si="5">100-C323</f>
+        <v>4.3900000000000006</v>
+      </c>
+      <c r="E323" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B324" t="s">
+        <v>3</v>
+      </c>
+      <c r="C324">
+        <v>95.61</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="5"/>
+        <v>4.3900000000000006</v>
+      </c>
+      <c r="E324" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B325" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325">
+        <v>95.29</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="5"/>
+        <v>4.7099999999999937</v>
+      </c>
+      <c r="E325" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B326" t="s">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>95.29</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="5"/>
+        <v>4.7099999999999937</v>
+      </c>
+      <c r="E326" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B327" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327">
+        <v>95.29</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="5"/>
+        <v>4.7099999999999937</v>
+      </c>
+      <c r="E327" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B328" t="s">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>95.29</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="5"/>
+        <v>4.7099999999999937</v>
+      </c>
+      <c r="E328" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B329" t="s">
+        <v>3</v>
+      </c>
+      <c r="C329">
+        <v>95.29</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="5"/>
+        <v>4.7099999999999937</v>
+      </c>
+      <c r="E329" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B330" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330">
+        <v>95.29</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="5"/>
+        <v>4.7099999999999937</v>
+      </c>
+      <c r="E330" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B331" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>95.69</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="5"/>
+        <v>4.3100000000000023</v>
+      </c>
+      <c r="E331" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B332" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>94.95</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="5"/>
+        <v>5.0499999999999972</v>
+      </c>
+      <c r="E332" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="2">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B333" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>93.99</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="5"/>
+        <v>6.0100000000000051</v>
+      </c>
+      <c r="E333" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>94.1</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="5"/>
+        <v>5.9000000000000057</v>
+      </c>
+      <c r="E334" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="2">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B335" t="s">
+        <v>3</v>
+      </c>
+      <c r="C335">
+        <v>94.88</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="5"/>
+        <v>5.1200000000000045</v>
+      </c>
+      <c r="E335" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+      <c r="C336">
+        <v>95.09</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="5"/>
+        <v>4.9099999999999966</v>
+      </c>
+      <c r="E336" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="2">
+        <v>1</v>
+      </c>
+      <c r="B337" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337">
+        <v>95.96</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="5"/>
+        <v>4.0400000000000063</v>
+      </c>
+      <c r="E337" s="1">
+        <v>44256</v>
       </c>
     </row>
   </sheetData>
